--- a/淘宝商品表.xlsx
+++ b/淘宝商品表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19530" windowHeight="8295"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19530" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="阳光海淘代购表模板" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
   <si>
     <t>健康馆</t>
   </si>
@@ -449,6 +449,10 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>推广情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -610,14 +614,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,6 +627,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -911,94 +915,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="10.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
-    <col min="8" max="8" width="10" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="16" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="15.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="6" max="6" width="10.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12"/>
+    <col min="8" max="8" width="10" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="12" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1016,19 +1024,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4800,19 +4808,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8335,19 +8343,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11588,19 +11596,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -14803,19 +14811,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -17905,19 +17913,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -21291,19 +21299,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
